--- a/TestExcel/Excel1.xlsx
+++ b/TestExcel/Excel1.xlsx
@@ -1,21 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\gitProject\ExcelDataSolution\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B92701-2104-41C7-8AFC-CAFA4A59399C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE60F02-38E6-40EC-B6B0-1E1883BE5042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28800" yWindow="14370" windowWidth="14400" windowHeight="17400" activeTab="2" xr2:uid="{9E591206-B59D-4EAE-B1EA-81415769ACC0}"/>
+    <workbookView xWindow="34980" yWindow="11550" windowWidth="21615" windowHeight="13785" firstSheet="1" activeTab="4" xr2:uid="{9E591206-B59D-4EAE-B1EA-81415769ACC0}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstSheet" sheetId="1" r:id="rId1"/>
     <sheet name="ArraySheet" sheetId="2" r:id="rId2"/>
     <sheet name="SameNameSheet" sheetId="3" r:id="rId3"/>
+    <sheet name="SingleColumnContainerSheet" sheetId="4" r:id="rId4"/>
+    <sheet name="SameColumnNameErr" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
   <si>
     <t>B2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -61,6 +63,18 @@
   </si>
   <si>
     <t>Score3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Values</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Value</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -511,7 +525,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F7E4C3-D4C0-43C9-89CA-9D08595D7512}">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
@@ -534,4 +548,65 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7985541B-4D12-487C-919F-C8CFD7C5F305}">
+  <dimension ref="A1:C2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87F2404-FE31-44FB-9BFA-B1172746893C}">
+  <dimension ref="A1:D2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/TestExcel/Excel1.xlsx
+++ b/TestExcel/Excel1.xlsx
@@ -1,22 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspace\gitProject\ExcelDataSolution\TestExcel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BE60F02-38E6-40EC-B6B0-1E1883BE5042}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4D14BF34-5D8F-42F3-B447-FA57CCC87BBD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="34980" yWindow="11550" windowWidth="21615" windowHeight="13785" firstSheet="1" activeTab="4" xr2:uid="{9E591206-B59D-4EAE-B1EA-81415769ACC0}"/>
+    <workbookView xWindow="9060" yWindow="12825" windowWidth="28800" windowHeight="15900" tabRatio="880" firstSheet="1" activeTab="3" xr2:uid="{9E591206-B59D-4EAE-B1EA-81415769ACC0}"/>
   </bookViews>
   <sheets>
     <sheet name="FirstSheet" sheetId="1" r:id="rId1"/>
     <sheet name="ArraySheet" sheetId="2" r:id="rId2"/>
-    <sheet name="SameNameSheet" sheetId="3" r:id="rId3"/>
-    <sheet name="SingleColumnContainerSheet" sheetId="4" r:id="rId4"/>
+    <sheet name="SingleColumnContainerSheet" sheetId="4" r:id="rId3"/>
+    <sheet name="SameNameSheet" sheetId="6" r:id="rId4"/>
     <sheet name="SameColumnNameErr" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="28">
   <si>
     <t>B2</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -74,7 +74,123 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Value</t>
+    <t>John Smith</t>
+  </si>
+  <si>
+    <t>김철수</t>
+  </si>
+  <si>
+    <r>
+      <t>山田太</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>郎</t>
+    </r>
+  </si>
+  <si>
+    <t>Li Wei</t>
+  </si>
+  <si>
+    <r>
+      <t>علي</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>الأحمد</t>
+    </r>
+  </si>
+  <si>
+    <t>Emily Johnson</t>
+  </si>
+  <si>
+    <t>이영희</t>
+  </si>
+  <si>
+    <t>佐藤花子</t>
+  </si>
+  <si>
+    <t>Wang Fang</t>
+  </si>
+  <si>
+    <r>
+      <t>محمد</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>خالد</t>
+    </r>
+  </si>
+  <si>
+    <t>3.14, 2.718, 1.618</t>
+  </si>
+  <si>
+    <t>1.234, 5.678</t>
+  </si>
+  <si>
+    <t>123.456, 78.9, 0.123</t>
+  </si>
+  <si>
+    <t>0.0001, 0.0002, 0.0003</t>
+  </si>
+  <si>
+    <t>987654.321, 1234.56</t>
+  </si>
+  <si>
+    <t>0.123456789, 0.987654</t>
+  </si>
+  <si>
+    <t>12.34, 56.78, 90.12</t>
+  </si>
+  <si>
+    <t>0.001, 0.01, 0.1, 1.0</t>
+  </si>
+  <si>
+    <t>12345678.9, 987654.321, 123.456</t>
+  </si>
+  <si>
+    <t>C3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -82,7 +198,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -96,6 +212,21 @@
       <name val="맑은 고딕"/>
       <family val="2"/>
       <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -121,8 +252,11 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -459,10 +593,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D504E28-3A28-47C0-ABC4-795251C9AD13}">
-  <dimension ref="A1:C2"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection activeCell="B3" sqref="B3:C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -478,6 +612,86 @@
       </c>
       <c r="C2" t="s">
         <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>83</v>
       </c>
     </row>
   </sheetData>
@@ -488,10 +702,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D8FC5A42-C0BA-4ED1-AD5C-2E1463898C10}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B3" sqref="B3:B12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -515,42 +729,154 @@
         <v>5</v>
       </c>
     </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>85</v>
+      </c>
+      <c r="D3">
+        <v>78</v>
+      </c>
+      <c r="E3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>91</v>
+      </c>
+      <c r="D4">
+        <v>88</v>
+      </c>
+      <c r="E4">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>77</v>
+      </c>
+      <c r="D5">
+        <v>84</v>
+      </c>
+      <c r="E5">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>90</v>
+      </c>
+      <c r="D6">
+        <v>85</v>
+      </c>
+      <c r="E6">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B7" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>88</v>
+      </c>
+      <c r="D7">
+        <v>92</v>
+      </c>
+      <c r="E7">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>79</v>
+      </c>
+      <c r="D8">
+        <v>83</v>
+      </c>
+      <c r="E8">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>94</v>
+      </c>
+      <c r="D9">
+        <v>97</v>
+      </c>
+      <c r="E9">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>81</v>
+      </c>
+      <c r="D10">
+        <v>76</v>
+      </c>
+      <c r="E10">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>86</v>
+      </c>
+      <c r="D11">
+        <v>89</v>
+      </c>
+      <c r="E11">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B12" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>82</v>
+      </c>
+      <c r="D12">
+        <v>84</v>
+      </c>
+      <c r="E12">
+        <v>88</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86F7E4C3-D4C0-43C9-89CA-9D08595D7512}">
-  <dimension ref="A1:C2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7985541B-4D12-487C-919F-C8CFD7C5F305}">
   <dimension ref="A1:C2"/>
   <sheetViews>
@@ -579,30 +905,219 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87F2404-FE31-44FB-9BFA-B1172746893C}">
-  <dimension ref="A1:D2"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{66369100-7CEE-4E28-95E2-2E3F25421C80}">
+  <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="C4" sqref="C4:C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D4">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C5" t="s">
+        <v>9</v>
+      </c>
+      <c r="D5">
+        <v>1.234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6">
+        <v>123.456</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C7" t="s">
+        <v>11</v>
+      </c>
+      <c r="D7">
+        <v>1E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C8" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8">
+        <v>987654.321</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C9" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9">
+        <v>0.123456789</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C10" t="s">
+        <v>14</v>
+      </c>
+      <c r="D10">
+        <v>12.34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>15</v>
+      </c>
+      <c r="D11">
+        <v>567.89</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D12">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="C13" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="D13">
+        <v>12345678.9</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B87F2404-FE31-44FB-9BFA-B1172746893C}">
+  <dimension ref="A1:C12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="30.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
         <v>6</v>
       </c>
       <c r="C2" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="C6" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="C7" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
-        <v>8</v>
+      <c r="C10">
+        <v>567.89</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="C12" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>

--- a/TestExcel/Excel1.xlsx
+++ b/TestExcel/Excel1.xlsx
@@ -83,13 +83,13 @@
     <t xml:space="preserve">محمد خالد</t>
   </si>
   <si>
+    <t xml:space="preserve">Score[0]</t>
+  </si>
+  <si>
     <t xml:space="preserve">Score[1]</t>
   </si>
   <si>
     <t xml:space="preserve">Score[2]</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Score[3]</t>
   </si>
   <si>
     <t xml:space="preserve">John “ABC” Smith</t>
@@ -558,7 +558,7 @@
   <dimension ref="A1:E12"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B6" activeCellId="0" sqref="B6"/>
+      <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -596,7 +596,7 @@
         <v>78</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">

--- a/TestExcel/Excel1.xlsx
+++ b/TestExcel/Excel1.xlsx
@@ -5,13 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="FirstSheet" sheetId="1" state="visible" r:id="rId3"/>
     <sheet name="ArraySheet" sheetId="2" state="visible" r:id="rId4"/>
     <sheet name="SameNameSheet" sheetId="3" state="visible" r:id="rId5"/>
-    <sheet name="SingleColumnContainerSheet" sheetId="4" state="visible" r:id="rId6"/>
+    <sheet name="SingleColumnCollectionSheet" sheetId="4" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -557,7 +557,7 @@
   </sheetPr>
   <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="E3" activeCellId="0" sqref="E3"/>
     </sheetView>
   </sheetViews>
@@ -599,7 +599,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="4" customFormat="false" ht="31.3" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+    <row r="4" customFormat="false" ht="16.5" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="4" t="s">
         <v>17</v>
       </c>
@@ -863,8 +863,8 @@
   </sheetPr>
   <dimension ref="A1:C12"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C15" activeCellId="0" sqref="C15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="P19" activeCellId="0" sqref="P19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.62890625" defaultRowHeight="16.5" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
